--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1055864.082318955</v>
+        <v>1053976.500802553</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.51410193272203</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.13881552133064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>248.0596779397534</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>218.8023173738366</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>221.0706685696815</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.7835007017901</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>4.553842565068744</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>327.4580453504705</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>331.3789203653269</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>6.79138903482001</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>105.3540670460874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594997</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.2045317851309</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.5305429001557</v>
+        <v>169.7438101404422</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.4348214669253</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.92757820193554</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.4423466534186</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.85017494300195</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>195.8155841663236</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.8803936258649</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>42.20569823125187</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20383876096139</v>
+        <v>54.76109577523584</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.7122078777245</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>511.7496909373128</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="D2" t="n">
-        <v>511.7496909373128</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="E2" t="n">
-        <v>125.9614383390685</v>
+        <v>495.0761172225809</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>488.1306164733774</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>474.2072124119683</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>147.0124924479712</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5636529541582</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1413.169543948888</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1044.207027008477</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>685.9413284017262</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>685.9413284017262</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>274.9554236121186</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1799.76938401301</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>725.8268082199834</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1658.820279285841</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1658.820279285841</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>229.739153672332</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>60.80297074442507</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>60.80297074442507</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>394.4025473335336</v>
+        <v>229.739153672332</v>
       </c>
       <c r="W10" t="n">
-        <v>394.4025473335336</v>
+        <v>229.739153672332</v>
       </c>
       <c r="X10" t="n">
-        <v>394.4025473335336</v>
+        <v>229.739153672332</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.4025473335336</v>
+        <v>229.739153672332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.0729548808321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.0729548808321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2463.528495470035</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500521</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500521</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X19" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.8250614170375</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>726.8250614170375</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>576.7084220047018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>428.7953284223087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>281.9053809243983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150549</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170375</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170375</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>827.9306256062546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>827.9306256062546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>677.8139861939188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>529.9008926115257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>383.0109451136154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>214.835623433436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>727.6476863320729</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>727.6476863320729</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y25" t="n">
-        <v>1009.579090436494</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,19 +6236,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688074</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1301.12275119798</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1077.337335987485</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>788.2086972010435</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V28" t="n">
-        <v>533.5242089951568</v>
+        <v>644.1080300429518</v>
       </c>
       <c r="W28" t="n">
-        <v>244.1070389581961</v>
+        <v>644.1080300429518</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581961</v>
+        <v>416.1184791449345</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581961</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227164</v>
+        <v>439.5324299542164</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761803</v>
+        <v>326.3571123076802</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>232.0013381767151</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441932</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1914.708044105609</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1770.548899302532</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1602.524349373409</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1369.156575868338</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1170.232952943822</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>936.5766481882318</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>764.3479625715852</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715852</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083213</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982987</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>634.0455001582217</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646857</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>474.7746905116405</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>721.5398184181047</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7406,31 +7406,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>391.6040140015125</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>283.6093329825492</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.64859338270685</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>73.64859338270691</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M24" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>213.2603911806621</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>188.8856946302397</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.100663089359244</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983069</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>297.3877236703339</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>104.874910276575</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>79.43092547709128</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.38012156696387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.0541104519391</v>
+        <v>48.84084321165264</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.14983188516948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>132.565990261442</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.26883114644329</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>32.47148171411749</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.2874683808261</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.10522581727966</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>82.70425972622991</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312244</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571503</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.55725701427431</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>984701.5873097039</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>984701.5873097039</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="11">
@@ -26314,13 +26314,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377089</v>
@@ -26332,28 +26332,28 @@
         <v>391029.0597377089</v>
       </c>
       <c r="I2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="J2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="J2" t="n">
-        <v>391029.059737709</v>
-      </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321421</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="N2" t="n">
+        <v>410520.8849321424</v>
+      </c>
+      <c r="O2" t="n">
         <v>410520.8849321422</v>
       </c>
-      <c r="N2" t="n">
-        <v>410520.8849321421</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321421</v>
-      </c>
       <c r="P2" t="n">
-        <v>410520.8849321421</v>
+        <v>410520.8849321422</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284538</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
@@ -26427,34 +26427,34 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007502</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007547</v>
+        <v>7916.7316560075</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020409</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732792</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410223.1210617332</v>
+        <v>-410223.1210617331</v>
       </c>
       <c r="C6" t="n">
-        <v>179744.7581528112</v>
+        <v>179744.7581528113</v>
       </c>
       <c r="D6" t="n">
-        <v>179744.7581528112</v>
+        <v>179744.7581528111</v>
       </c>
       <c r="E6" t="n">
-        <v>-234035.0343439113</v>
+        <v>-234132.4934698836</v>
       </c>
       <c r="F6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="G6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="H6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="I6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="J6" t="n">
-        <v>114701.7829403922</v>
+        <v>114604.3238144197</v>
       </c>
       <c r="K6" t="n">
-        <v>239949.969341998</v>
+        <v>239931.4756040638</v>
       </c>
       <c r="L6" t="n">
         <v>272127.353413922</v>
@@ -26555,13 +26555,13 @@
         <v>147669.2449809517</v>
       </c>
       <c r="N6" t="n">
-        <v>282470.2602147887</v>
+        <v>282470.2602147891</v>
       </c>
       <c r="O6" t="n">
         <v>282470.2602147888</v>
       </c>
       <c r="P6" t="n">
-        <v>238307.654911943</v>
+        <v>238307.6549119434</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,37 +26744,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.3619438089894</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>59.79250072353061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>38.22219630222429</v>
+        <v>275.2775795709196</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>194.9818526469584</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>148.6604321087876</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>83.3620382482288</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>247.5838007587593</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>79.41800039124092</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>17.86204835208611</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>139.6425736117492</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>146.7835762777406</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>594.0337100330154</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.661626167781</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>384.0729704331731</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M24" t="n">
-        <v>510.1640057735812</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>495.6240934217703</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713479</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>374.2497035813873</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>213.37009787777</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>630.5822970683469</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>255.4503488645142</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
